--- a/biology/Origine et évolution du vivant/James_Moore_(biographe)/James_Moore_(biographe).xlsx
+++ b/biology/Origine et évolution du vivant/James_Moore_(biographe)/James_Moore_(biographe).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Richard Moore, né en 1947, est un biographe et historien des sciences britannique.
 Il est l'auteur de publications sur l'histoire de l'évolution et spécialement, avec Adrian Desmond, le co-auteur en 1991 d'une biographie de Charles Darwin (1809-1882).
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Adrian Desmond et James Moore, Darwin, Londres, Michael Joseph, Penguin Group, 1991, xxi + 807, 56 p.de pl. (ISBN 0-7181-3430-3)
 (en) Adrian Desmond, James Moore et Janet Browne, Charles Darwin, Oxford et New York, Oxford University Press, 2007, 160 p. (ISBN 978-0-19-921354-2)
